--- a/src/main/java/com/dbs/qa/testdata/DBSAssesmentTestData.xlsx
+++ b/src/main/java/com/dbs/qa/testdata/DBSAssesmentTestData.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="TableData" r:id="rId3" sheetId="1"/>
+    <sheet name="AwardList" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="55">
   <si>
     <t>Amalgam Holdings Pte Ltd</t>
   </si>
@@ -99,6 +100,84 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>Award Name</t>
+  </si>
+  <si>
+    <t>Caption of the award</t>
+  </si>
+  <si>
+    <t>Euromoney</t>
+  </si>
+  <si>
+    <t>World's Best Bank 2019</t>
+  </si>
+  <si>
+    <t>The Banker</t>
+  </si>
+  <si>
+    <t>Bank of the Year 2018</t>
+  </si>
+  <si>
+    <t>Global Finance</t>
+  </si>
+  <si>
+    <t>Best Bank in the World 2018</t>
+  </si>
+  <si>
+    <t>Awards For Excellence</t>
+  </si>
+  <si>
+    <t>World's Best Banks</t>
+  </si>
+  <si>
+    <t>World's Best Investment Banks and Derivatives Providers</t>
+  </si>
+  <si>
+    <t>World's Best Treasury and Cash Management Banks and Providers</t>
+  </si>
+  <si>
+    <t>Trade Finance and Supply Chain Finance Awards</t>
+  </si>
+  <si>
+    <t>Best Sub-Custodian Banks</t>
+  </si>
+  <si>
+    <t>World's Best Private Bank Awards</t>
+  </si>
+  <si>
+    <t>The Asset</t>
+  </si>
+  <si>
+    <t>Treasury, Trade, Sustainable Supply Chain and Risk Management Awards</t>
+  </si>
+  <si>
+    <t>Asiamoney</t>
+  </si>
+  <si>
+    <t>Private Banking Awards</t>
+  </si>
+  <si>
+    <t>Hackett Group</t>
+  </si>
+  <si>
+    <t>Digital Awards</t>
+  </si>
+  <si>
+    <t>Foreign Exchange Awards</t>
+  </si>
+  <si>
+    <t>The Innovators</t>
+  </si>
+  <si>
+    <t>Bloomberg</t>
+  </si>
+  <si>
+    <t>Gender Equality Index</t>
+  </si>
+  <si>
+    <t>Awards for Excellence</t>
   </si>
 </sst>
 </file>
@@ -254,4 +333,201 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>